--- a/RQ2/Overall Data.xlsx
+++ b/RQ2/Overall Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keshab\Documents\transfer-students-research\RQ2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{438ADD30-10C8-4B89-9381-83CD937C0506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8490D0-B31A-465B-BAEA-4B95974EB839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{4799B5BB-DE3B-46E4-8A51-1D74B8DC2097}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="18">
   <si>
     <t>Native Mean</t>
   </si>
@@ -84,19 +84,28 @@
   </si>
   <si>
     <t>Attendance</t>
+  </si>
+  <si>
+    <t>RBC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -186,13 +195,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF9BF2-86B2-4D70-A0EF-A8CCC9DF28AF}">
   <dimension ref="A2:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="82" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -562,7 +574,9 @@
       <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
@@ -593,10 +607,13 @@
         <v>164</v>
       </c>
       <c r="K5" s="1">
-        <v>9.9597660736560099E-5</v>
+        <v>1.9919532147312001E-4</v>
       </c>
       <c r="L5" s="1">
         <v>3452</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.32100708103855202</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -636,7 +653,9 @@
       <c r="L7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
@@ -667,10 +686,14 @@
         <v>164</v>
       </c>
       <c r="K8" s="1">
-        <v>2.1558000000000001E-2</v>
+        <f>0.021558*2</f>
+        <v>4.3116000000000002E-2</v>
       </c>
       <c r="L8" s="1">
         <v>4196.5</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.174567</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -710,7 +733,9 @@
       <c r="L10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
@@ -741,11 +766,19 @@
         <v>164</v>
       </c>
       <c r="K11" s="1">
-        <v>1.24E-3</v>
+        <f>0.00124*2</f>
+        <v>2.48E-3</v>
       </c>
       <c r="L11" s="1">
         <v>3756.5</v>
       </c>
+      <c r="M11" s="1">
+        <v>0.26111299999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -789,7 +822,9 @@
       <c r="L15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
@@ -820,10 +855,13 @@
         <v>371</v>
       </c>
       <c r="K16" s="1">
-        <v>0.21853966881395401</v>
+        <v>0.43707933762790901</v>
       </c>
       <c r="L16" s="5">
         <v>7460.5</v>
+      </c>
+      <c r="M16" s="1">
+        <v>-6.4690026954177901E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -863,7 +901,9 @@
       <c r="L18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
@@ -894,10 +934,13 @@
         <v>371</v>
       </c>
       <c r="K19" s="1">
-        <v>1.281E-3</v>
+        <v>2.562E-3</v>
       </c>
       <c r="L19" s="1">
         <v>5737.5</v>
+      </c>
+      <c r="M19">
+        <v>0.28070000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -937,7 +980,9 @@
       <c r="L21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
@@ -968,10 +1013,13 @@
         <v>371</v>
       </c>
       <c r="K22" s="1">
-        <v>1.0900000000000001E-4</v>
+        <v>2.1699999999999999E-4</v>
       </c>
       <c r="L22" s="1">
         <v>5229.5</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.344387</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -1011,7 +1059,9 @@
       <c r="L24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B25" s="1">
@@ -1042,10 +1092,13 @@
         <v>371</v>
       </c>
       <c r="K25" s="1">
-        <v>3.0539499604066201E-2</v>
+        <v>6.1078999208132402E-2</v>
       </c>
       <c r="L25" s="1">
         <v>6873</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.13834388516266499</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -1090,7 +1143,9 @@
       <c r="L29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="1"/>
+      <c r="M29" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B30" s="1">
@@ -1121,12 +1176,14 @@
         <v>459</v>
       </c>
       <c r="K30" s="1">
-        <v>1.11990239625983E-6</v>
+        <v>2.23980479251966E-6</v>
       </c>
       <c r="L30" s="1">
         <v>8602</v>
       </c>
-      <c r="M30" s="1"/>
+      <c r="M30" s="1">
+        <v>0.375308641975308</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
@@ -1165,7 +1222,9 @@
       <c r="L32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="1"/>
+      <c r="M32" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33" s="1">
@@ -1196,10 +1255,13 @@
         <v>459</v>
       </c>
       <c r="K33" s="1">
-        <v>2.9474569999999999E-9</v>
+        <v>5.8949130000000004E-9</v>
       </c>
       <c r="L33" s="1">
         <v>7412</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0.46172800000000003</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.35">
@@ -1239,7 +1301,9 @@
       <c r="L35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="1"/>
+      <c r="M35" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36" s="1">
@@ -1270,12 +1334,14 @@
         <v>459</v>
       </c>
       <c r="K36" s="1">
-        <v>1.3522020000000001E-10</v>
+        <v>2.7044040000000002E-10</v>
       </c>
       <c r="L36" s="1">
         <v>6871</v>
       </c>
-      <c r="M36" s="1"/>
+      <c r="M36" s="1">
+        <v>0.50101700000000005</v>
+      </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
@@ -1314,7 +1380,9 @@
       <c r="L38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="1"/>
+      <c r="M38" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39" s="1">
@@ -1345,12 +1413,14 @@
         <v>459</v>
       </c>
       <c r="K39" s="1">
-        <v>1.06991729451435E-4</v>
+        <v>2.13983458902871E-4</v>
       </c>
       <c r="L39" s="1">
         <v>10036</v>
       </c>
-      <c r="M39" s="1"/>
+      <c r="M39" s="1">
+        <v>0.27116920842411002</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RQ2/Overall Data.xlsx
+++ b/RQ2/Overall Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keshab\Documents\transfer-students-research\RQ2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8490D0-B31A-465B-BAEA-4B95974EB839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729F10CE-504C-453B-8ED3-63A2EC881F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{4799B5BB-DE3B-46E4-8A51-1D74B8DC2097}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A2:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="82" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -939,7 +939,7 @@
       <c r="L19" s="1">
         <v>5737.5</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="1">
         <v>0.28070000000000001</v>
       </c>
     </row>
